--- a/DebugLogAnalyzer/Resources/XLSX/DebugLogAnalyzer.xlsx
+++ b/DebugLogAnalyzer/Resources/XLSX/DebugLogAnalyzer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyako/Documents/GitHub/DebugLogAnalyzer/DebugLogAnalyzer/Resources/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47231DC9-6A42-DD40-8D5A-3FDDBACB359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DCDA40-B5FE-8549-8DE2-5486E317B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1920" windowWidth="12780" windowHeight="13820" activeTab="8" xr2:uid="{0F3D1A05-6396-8346-BA70-B3F15A863D0B}"/>
+    <workbookView xWindow="4140" yWindow="1920" windowWidth="20080" windowHeight="14700" firstSheet="3" activeTab="8" xr2:uid="{0F3D1A05-6396-8346-BA70-B3F15A863D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands Duration" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
     <t>Ranking</t>
     <phoneticPr fontId="1"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>Execution Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Average</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -519,7 +527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -561,7 +569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -603,7 +611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -644,8 +652,8 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -665,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -687,7 +695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -707,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -729,7 +737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -749,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -771,7 +779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -791,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -813,7 +821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="18"/>
@@ -833,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -875,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
